--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -351,10 +351,10 @@
 </t>
   </si>
   <si>
+    <t>Sex assigned at birth based on observation by a physician.  Also called phenotype, or how the genes were expressed, based on the observation of the doctor. This assignment may not match the gender identity of the person, which will not be known until the newborn is older.</t>
+  </si>
+  <si>
     <t>Sex assigned at birth based on observation by a physician.  Also called phenotype, or how the genes were expressed, based on the observation of the doctor. This assignment may not match the gender Identity of the person, which will not be known until the newborn is older.</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>patientGenderIdentity</t>
@@ -364,9 +364,6 @@
 </t>
   </si>
   <si>
-    <t>The patient's gender identity</t>
-  </si>
-  <si>
     <t>The gender the patient identifies with. The Patient's gender identity is used as guidance (e.g. for staff) about how to interact with the patient.</t>
   </si>
   <si>
@@ -468,6 +465,9 @@
   </si>
   <si>
     <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Patient.extension.extension.id</t>
@@ -2824,7 +2824,7 @@
         <v>110</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2933,10 +2933,10 @@
         <v>53</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2987,22 +2987,22 @@
         <v>44</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>44</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3090,7 +3090,7 @@
         <v>100</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>44</v>
@@ -3099,7 +3099,7 @@
         <v>101</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>42</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3157,13 +3157,13 @@
         <v>67</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3171,49 +3171,49 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="R14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>51</v>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3268,13 +3268,13 @@
         <v>44</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3301,27 +3301,27 @@
         <v>44</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3353,17 +3353,17 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>44</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>51</v>
@@ -3378,13 +3378,13 @@
         <v>44</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3411,11 +3411,11 @@
         <v>44</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>44</v>
@@ -3433,7 +3433,7 @@
         <v>44</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3468,7 +3468,7 @@
         <v>96</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>44</v>
@@ -3490,13 +3490,13 @@
         <v>44</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3605,10 +3605,10 @@
         <v>53</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3659,22 +3659,22 @@
         <v>44</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>44</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3762,7 +3762,7 @@
         <v>100</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>44</v>
@@ -3771,7 +3771,7 @@
         <v>101</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
@@ -3803,10 +3803,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>44</v>
@@ -3828,13 +3828,13 @@
         <v>44</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3885,7 +3885,7 @@
         <v>44</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3943,10 +3943,10 @@
         <v>53</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3997,22 +3997,22 @@
         <v>44</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>44</v>
@@ -4100,7 +4100,7 @@
         <v>100</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>44</v>
@@ -4109,7 +4109,7 @@
         <v>101</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -4167,13 +4167,13 @@
         <v>67</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4223,7 +4223,7 @@
         <v>44</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>51</v>
@@ -4281,7 +4281,7 @@
         <v>149</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>150</v>
@@ -4323,17 +4323,17 @@
         <v>44</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD24" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4393,7 +4393,7 @@
         <v>152</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>150</v>
@@ -4447,7 +4447,7 @@
         <v>44</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>153</v>
@@ -4510,7 +4510,7 @@
         <v>155</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4561,7 +4561,7 @@
         <v>44</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>156</v>
@@ -4624,7 +4624,7 @@
         <v>158</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>107</v>
+        <v>158</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4675,7 +4675,7 @@
         <v>44</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>159</v>
@@ -4738,7 +4738,7 @@
         <v>161</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4789,7 +4789,7 @@
         <v>44</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>162</v>
@@ -4852,7 +4852,7 @@
         <v>164</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4903,7 +4903,7 @@
         <v>44</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4935,7 +4935,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>165</v>
@@ -4966,7 +4966,7 @@
         <v>167</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5017,7 +5017,7 @@
         <v>44</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -5049,7 +5049,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>168</v>
@@ -5077,10 +5077,10 @@
         <v>169</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5131,7 +5131,7 @@
         <v>44</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -5189,10 +5189,10 @@
         <v>53</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5243,22 +5243,22 @@
         <v>44</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>44</v>
@@ -5346,7 +5346,7 @@
         <v>100</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>44</v>
@@ -5355,7 +5355,7 @@
         <v>101</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5415,10 +5415,10 @@
         <v>172</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5469,7 +5469,7 @@
         <v>44</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
@@ -5527,10 +5527,10 @@
         <v>53</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5581,22 +5581,22 @@
         <v>44</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>44</v>
@@ -5684,7 +5684,7 @@
         <v>100</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>44</v>
@@ -5693,7 +5693,7 @@
         <v>101</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5751,13 +5751,13 @@
         <v>67</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5807,7 +5807,7 @@
         <v>44</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>51</v>
@@ -5865,7 +5865,7 @@
         <v>149</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>150</v>
@@ -5907,17 +5907,17 @@
         <v>44</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AD38" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5977,7 +5977,7 @@
         <v>152</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>150</v>
@@ -6031,7 +6031,7 @@
         <v>44</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -6094,7 +6094,7 @@
         <v>180</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6145,7 +6145,7 @@
         <v>44</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6208,7 +6208,7 @@
         <v>181</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6259,7 +6259,7 @@
         <v>44</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6322,7 +6322,7 @@
         <v>182</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>107</v>
+        <v>182</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6373,7 +6373,7 @@
         <v>44</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6431,13 +6431,13 @@
         <v>67</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6487,7 +6487,7 @@
         <v>44</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>51</v>
@@ -6545,7 +6545,7 @@
         <v>184</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>150</v>
@@ -6599,7 +6599,7 @@
         <v>44</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6631,7 +6631,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6657,13 +6657,13 @@
         <v>67</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6713,7 +6713,7 @@
         <v>44</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>51</v>
@@ -6745,7 +6745,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6771,7 +6771,7 @@
         <v>184</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L46" t="s" s="2">
         <v>150</v>
@@ -6825,7 +6825,7 @@
         <v>44</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -7113,10 +7113,10 @@
         <v>53</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7167,22 +7167,22 @@
         <v>44</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>44</v>
@@ -7272,7 +7272,7 @@
         <v>100</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>44</v>
@@ -7281,7 +7281,7 @@
         <v>101</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7296,7 +7296,7 @@
         <v>103</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>44</v>
@@ -7452,7 +7452,7 @@
         <v>52</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>217</v>
@@ -7489,7 +7489,7 @@
         <v>44</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
@@ -8103,7 +8103,7 @@
         <v>263</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>264</v>
@@ -8683,7 +8683,7 @@
         <v>309</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>44</v>
@@ -8836,7 +8836,7 @@
         <v>44</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>321</v>
@@ -8871,7 +8871,7 @@
         <v>44</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X64" t="s" s="2">
         <v>324</v>
@@ -9029,7 +9029,7 @@
         <v>335</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>44</v>
@@ -9145,7 +9145,7 @@
         <v>343</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>44</v>
@@ -9261,7 +9261,7 @@
         <v>352</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>44</v>
@@ -9301,10 +9301,10 @@
         <v>53</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9355,22 +9355,22 @@
         <v>44</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>44</v>
@@ -9469,7 +9469,7 @@
         <v>44</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>42</v>
@@ -9484,7 +9484,7 @@
         <v>103</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>44</v>
@@ -9640,7 +9640,7 @@
         <v>44</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>361</v>
@@ -9675,7 +9675,7 @@
         <v>44</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X71" t="s" s="2">
         <v>364</v>
@@ -9717,7 +9717,7 @@
         <v>366</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>44</v>
@@ -9831,7 +9831,7 @@
         <v>271</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>44</v>
@@ -9947,7 +9947,7 @@
         <v>280</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>44</v>
@@ -10061,7 +10061,7 @@
         <v>317</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>44</v>
@@ -10175,7 +10175,7 @@
         <v>290</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>44</v>
@@ -10289,7 +10289,7 @@
         <v>392</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>44</v>
@@ -10401,7 +10401,7 @@
         <v>397</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>44</v>
@@ -10557,10 +10557,10 @@
         <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10611,22 +10611,22 @@
         <v>44</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>44</v>
@@ -10725,7 +10725,7 @@
         <v>44</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>42</v>
@@ -10740,7 +10740,7 @@
         <v>103</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>44</v>
@@ -10896,7 +10896,7 @@
         <v>44</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>409</v>
@@ -11205,7 +11205,7 @@
         <v>430</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>44</v>
@@ -11437,7 +11437,7 @@
         <v>443</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>44</v>
@@ -11477,10 +11477,10 @@
         <v>53</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>113</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11531,22 +11531,22 @@
         <v>44</v>
       </c>
       <c r="AE87" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>44</v>
@@ -11645,7 +11645,7 @@
         <v>44</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>42</v>
@@ -11660,7 +11660,7 @@
         <v>103</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>44</v>
@@ -11893,7 +11893,7 @@
         <v>198</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>44</v>
@@ -12005,7 +12005,7 @@
         <v>457</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>44</v>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1870,44 +1870,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="45.71875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.53125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.53515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="80.89453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.91796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="39.375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="39.37890625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="497">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,196 +278,200 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Patient.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+</t>
+  </si>
+  <si>
+    <t>Metadata about a resource</t>
+  </si>
+  <si>
+    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Patient.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Patient.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Patient.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Patient.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>Patient.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>sexAssignedAtBirth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/sex-assigned-at-birth}
+</t>
+  </si>
+  <si>
+    <t>Sex assigned at birth based on observation by a physician.  Also called phenotype, or how the genes were expressed, based on the observation of the doctor. This assignment may not match the gender identity of the person, which will not be known until the newborn is older.</t>
+  </si>
+  <si>
+    <t>Sex assigned at birth based on observation by a physician.  Also called phenotype, or how the genes were expressed, based on the observation of the doctor. This assignment may not match the gender Identity of the person, which will not be known until the newborn is older.</t>
+  </si>
+  <si>
+    <t>patientGenderIdentity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {patient-genderIdentity}
+</t>
+  </si>
+  <si>
+    <t>The gender the patient identifies with. The Patient's gender identity is used as guidance (e.g. for staff) about how to interact with the patient.</t>
+  </si>
+  <si>
+    <t>Patient.extension.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Patient.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
-</t>
-  </si>
-  <si>
-    <t>Metadata about a resource</t>
-  </si>
-  <si>
-    <t>The metadata about a resource. This is content in the resource that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Patient.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Patient.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Patient.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Patient.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Patient.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>sexAssignedAtBirth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/sex-assigned-at-birth}
-</t>
-  </si>
-  <si>
-    <t>Sex assigned at birth based on observation by a physician.  Also called phenotype, or how the genes were expressed, based on the observation of the doctor. This assignment may not match the gender identity of the person, which will not be known until the newborn is older.</t>
-  </si>
-  <si>
-    <t>Sex assigned at birth based on observation by a physician.  Also called phenotype, or how the genes were expressed, based on the observation of the doctor. This assignment may not match the gender Identity of the person, which will not be known until the newborn is older.</t>
-  </si>
-  <si>
-    <t>patientGenderIdentity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {patient-genderIdentity}
-</t>
-  </si>
-  <si>
-    <t>The gender the patient identifies with. The Patient's gender identity is used as guidance (e.g. for staff) about how to interact with the patient.</t>
-  </si>
-  <si>
-    <t>Patient.extension.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3190,13 +3194,13 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3247,7 +3251,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>76</v>
@@ -3262,7 +3266,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3279,7 +3283,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3350,7 +3354,7 @@
         <v>134</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>78</v>
@@ -3359,7 +3363,7 @@
         <v>135</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -3391,7 +3395,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3417,13 +3421,13 @@
         <v>101</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3431,7 +3435,7 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>78</v>
@@ -3473,7 +3477,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>85</v>
@@ -3505,7 +3509,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3528,13 +3532,13 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3561,27 +3565,27 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
@@ -3613,10 +3617,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>78</v>
@@ -3638,13 +3642,13 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3671,11 +3675,11 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>78</v>
@@ -3693,7 +3697,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
@@ -3728,7 +3732,7 @@
         <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>78</v>
@@ -3750,13 +3754,13 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3862,13 +3866,13 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3919,7 +3923,7 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>76</v>
@@ -3934,7 +3938,7 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -3951,7 +3955,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4022,7 +4026,7 @@
         <v>134</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>78</v>
@@ -4031,7 +4035,7 @@
         <v>135</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4063,10 +4067,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>78</v>
@@ -4088,13 +4092,13 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4145,7 +4149,7 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -4177,7 +4181,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4200,13 +4204,13 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4257,7 +4261,7 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>76</v>
@@ -4272,7 +4276,7 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -4289,7 +4293,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4360,7 +4364,7 @@
         <v>134</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>78</v>
@@ -4369,7 +4373,7 @@
         <v>135</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -4401,7 +4405,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4427,13 +4431,13 @@
         <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4441,7 +4445,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>78</v>
@@ -4483,7 +4487,7 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>85</v>
@@ -4515,7 +4519,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4538,13 +4542,13 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4583,17 +4587,17 @@
         <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
@@ -4625,10 +4629,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>78</v>
@@ -4650,13 +4654,13 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4707,7 +4711,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
@@ -4739,10 +4743,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>78</v>
@@ -4764,13 +4768,13 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4821,7 +4825,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4853,10 +4857,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>78</v>
@@ -4878,13 +4882,13 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4935,7 +4939,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4967,10 +4971,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>78</v>
@@ -4992,13 +4996,13 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5049,7 +5053,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5081,10 +5085,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>78</v>
@@ -5106,13 +5110,13 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5163,7 +5167,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5195,10 +5199,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>78</v>
@@ -5220,13 +5224,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5277,7 +5281,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5309,10 +5313,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>78</v>
@@ -5334,13 +5338,13 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5391,7 +5395,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5423,7 +5427,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5446,13 +5450,13 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5503,7 +5507,7 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>76</v>
@@ -5518,7 +5522,7 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5535,7 +5539,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5543,7 +5547,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>77</v>
@@ -5606,7 +5610,7 @@
         <v>134</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC33" t="s" s="2">
         <v>78</v>
@@ -5615,7 +5619,7 @@
         <v>135</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5647,10 +5651,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>78</v>
@@ -5672,13 +5676,13 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5729,7 +5733,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5761,7 +5765,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5784,13 +5788,13 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5841,7 +5845,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>76</v>
@@ -5856,7 +5860,7 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5873,7 +5877,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5944,7 +5948,7 @@
         <v>134</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC36" t="s" s="2">
         <v>78</v>
@@ -5953,7 +5957,7 @@
         <v>135</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5985,7 +5989,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6011,13 +6015,13 @@
         <v>101</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6025,7 +6029,7 @@
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>78</v>
@@ -6067,7 +6071,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>85</v>
@@ -6099,7 +6103,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6122,13 +6126,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6167,17 +6171,17 @@
         <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
@@ -6209,10 +6213,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>78</v>
@@ -6234,13 +6238,13 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6291,7 +6295,7 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
@@ -6323,10 +6327,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>78</v>
@@ -6348,13 +6352,13 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6405,7 +6409,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6437,10 +6441,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>78</v>
@@ -6462,13 +6466,13 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6519,7 +6523,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6551,10 +6555,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>78</v>
@@ -6576,13 +6580,13 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6633,7 +6637,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6665,7 +6669,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6691,13 +6695,13 @@
         <v>101</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6705,7 +6709,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>78</v>
@@ -6747,7 +6751,7 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>85</v>
@@ -6779,7 +6783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6802,13 +6806,13 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6859,7 +6863,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
@@ -6891,7 +6895,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6917,13 +6921,13 @@
         <v>101</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6931,7 +6935,7 @@
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>78</v>
@@ -6973,7 +6977,7 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>85</v>
@@ -7005,7 +7009,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7028,13 +7032,13 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7085,7 +7089,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
@@ -7117,11 +7121,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7143,16 +7147,16 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7201,7 +7205,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7233,7 +7237,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7256,17 +7260,17 @@
         <v>86</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
@@ -7315,7 +7319,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7330,16 +7334,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7347,7 +7351,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7370,13 +7374,13 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7427,7 +7431,7 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>76</v>
@@ -7442,7 +7446,7 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -7459,11 +7463,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7485,13 +7489,13 @@
         <v>131</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7532,7 +7536,7 @@
         <v>134</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>78</v>
@@ -7541,7 +7545,7 @@
         <v>135</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7556,7 +7560,7 @@
         <v>137</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -7573,7 +7577,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7599,16 +7603,16 @@
         <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
@@ -7633,13 +7637,13 @@
         <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>78</v>
@@ -7657,7 +7661,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>76</v>
@@ -7672,7 +7676,7 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -7689,7 +7693,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7712,19 +7716,19 @@
         <v>86</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7749,11 +7753,11 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>78</v>
@@ -7771,7 +7775,7 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>76</v>
@@ -7786,7 +7790,7 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -7795,7 +7799,7 @@
         <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -7803,7 +7807,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7829,16 +7833,16 @@
         <v>101</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
@@ -7851,7 +7855,7 @@
         <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="T53" t="s" s="2">
         <v>78</v>
@@ -7887,7 +7891,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>76</v>
@@ -7902,7 +7906,7 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -7911,7 +7915,7 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -7919,7 +7923,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7942,16 +7946,16 @@
         <v>86</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7965,7 +7969,7 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="T54" t="s" s="2">
         <v>78</v>
@@ -8001,7 +8005,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>76</v>
@@ -8016,7 +8020,7 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8025,7 +8029,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8033,7 +8037,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8056,13 +8060,13 @@
         <v>86</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8113,7 +8117,7 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>76</v>
@@ -8128,7 +8132,7 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -8137,7 +8141,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8145,7 +8149,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8168,16 +8172,16 @@
         <v>86</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8227,7 +8231,7 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>76</v>
@@ -8242,7 +8246,7 @@
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8251,7 +8255,7 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8259,7 +8263,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8282,70 +8286,70 @@
         <v>86</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Q57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="Q57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>76</v>
@@ -8360,13 +8364,13 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8377,7 +8381,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8400,19 +8404,19 @@
         <v>86</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -8461,7 +8465,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8476,16 +8480,16 @@
         <v>98</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8493,7 +8497,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8516,19 +8520,19 @@
         <v>86</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -8577,7 +8581,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8592,16 +8596,16 @@
         <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8609,7 +8613,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8635,16 +8639,16 @@
         <v>107</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -8669,13 +8673,13 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>78</v>
@@ -8693,7 +8697,7 @@
         <v>78</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>76</v>
@@ -8708,16 +8712,16 @@
         <v>98</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8725,7 +8729,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8748,19 +8752,19 @@
         <v>86</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -8809,7 +8813,7 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
@@ -8824,24 +8828,24 @@
         <v>98</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8864,19 +8868,19 @@
         <v>86</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -8925,7 +8929,7 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
@@ -8940,16 +8944,16 @@
         <v>98</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -8957,7 +8961,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8980,19 +8984,19 @@
         <v>86</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9041,7 +9045,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9056,16 +9060,16 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9073,7 +9077,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9096,17 +9100,17 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9131,13 +9135,13 @@
         <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>78</v>
@@ -9155,7 +9159,7 @@
         <v>78</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>76</v>
@@ -9170,16 +9174,16 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9187,7 +9191,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9210,19 +9214,19 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9271,7 +9275,7 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
@@ -9286,16 +9290,16 @@
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9303,7 +9307,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9326,19 +9330,19 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9387,7 +9391,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9402,16 +9406,16 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9419,7 +9423,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9442,19 +9446,19 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9503,7 +9507,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9515,13 +9519,13 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
@@ -9535,7 +9539,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9558,13 +9562,13 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9615,7 +9619,7 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>76</v>
@@ -9630,7 +9634,7 @@
         <v>78</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -9647,11 +9651,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9673,13 +9677,13 @@
         <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9729,7 +9733,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -9744,7 +9748,7 @@
         <v>137</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -9761,11 +9765,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9787,16 +9791,16 @@
         <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>78</v>
@@ -9845,7 +9849,7 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9877,7 +9881,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9900,17 +9904,17 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -9935,13 +9939,13 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>78</v>
@@ -9959,7 +9963,7 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9974,16 +9978,16 @@
         <v>98</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -9991,7 +9995,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10014,17 +10018,17 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10073,7 +10077,7 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
@@ -10088,16 +10092,16 @@
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10105,7 +10109,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10128,19 +10132,19 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10189,7 +10193,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10204,16 +10208,16 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10221,7 +10225,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10244,17 +10248,17 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10303,7 +10307,7 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
@@ -10318,16 +10322,16 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10335,7 +10339,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10361,14 +10365,14 @@
         <v>107</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>78</v>
@@ -10393,13 +10397,13 @@
         <v>78</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>78</v>
@@ -10417,7 +10421,7 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>76</v>
@@ -10432,16 +10436,16 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10449,7 +10453,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10472,17 +10476,17 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -10531,7 +10535,7 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
@@ -10540,22 +10544,22 @@
         <v>85</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10563,7 +10567,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10586,13 +10590,13 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10643,7 +10647,7 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
@@ -10658,10 +10662,10 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
@@ -10675,7 +10679,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10698,19 +10702,19 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>78</v>
@@ -10759,7 +10763,7 @@
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -10774,10 +10778,10 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
@@ -10791,7 +10795,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10814,13 +10818,13 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10871,7 +10875,7 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>76</v>
@@ -10886,7 +10890,7 @@
         <v>78</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -10903,11 +10907,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10929,13 +10933,13 @@
         <v>131</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10985,7 +10989,7 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -11000,7 +11004,7 @@
         <v>137</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11017,11 +11021,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11043,16 +11047,16 @@
         <v>131</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>78</v>
@@ -11101,7 +11105,7 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -11133,7 +11137,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11156,19 +11160,19 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>78</v>
@@ -11217,7 +11221,7 @@
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>85</v>
@@ -11232,16 +11236,16 @@
         <v>98</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11249,7 +11253,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11272,19 +11276,19 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
@@ -11333,7 +11337,7 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
@@ -11348,16 +11352,16 @@
         <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11365,11 +11369,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11388,16 +11392,16 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11447,7 +11451,7 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
@@ -11462,16 +11466,16 @@
         <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11479,7 +11483,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11502,19 +11506,19 @@
         <v>86</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -11563,7 +11567,7 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
@@ -11578,10 +11582,10 @@
         <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
@@ -11595,7 +11599,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11618,19 +11622,19 @@
         <v>86</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>78</v>
@@ -11679,7 +11683,7 @@
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -11694,10 +11698,10 @@
         <v>98</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>78</v>
@@ -11711,7 +11715,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11734,13 +11738,13 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11791,7 +11795,7 @@
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>76</v>
@@ -11806,7 +11810,7 @@
         <v>78</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -11823,11 +11827,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11849,13 +11853,13 @@
         <v>131</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11905,7 +11909,7 @@
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -11920,7 +11924,7 @@
         <v>137</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -11937,11 +11941,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11963,16 +11967,16 @@
         <v>131</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>78</v>
@@ -12021,7 +12025,7 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -12053,7 +12057,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12076,16 +12080,16 @@
         <v>86</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12135,7 +12139,7 @@
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>85</v>
@@ -12150,16 +12154,16 @@
         <v>98</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12167,7 +12171,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12193,10 +12197,10 @@
         <v>107</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12223,13 +12227,13 @@
         <v>78</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>78</v>
@@ -12247,7 +12251,7 @@
         <v>78</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>85</v>
@@ -12262,10 +12266,10 @@
         <v>98</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-cdm-match-patient.xlsx
+++ b/StructureDefinition-cdm-match-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3307" uniqueCount="496">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/cdm-match-patient</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/cdm-match-patient</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -259,10 +259,6 @@
     <t>Demographics and other administrative information about an individual or animal receiving care or other health-related services.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Patient[classCode=PAT]</t>
   </si>
   <si>
@@ -297,7 +293,7 @@
     <t>Patient.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {http://ibm.com/fhir/cdm/StructureDefinition/process-meta}
+    <t xml:space="preserve">Meta {http://linuxforhealth.org/fhir/cdm/StructureDefinition/process-meta}
 </t>
   </si>
   <si>
@@ -447,7 +443,7 @@
     <t>sexAssignedAtBirth</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/sex-assigned-at-birth}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/sex-assigned-at-birth}
 </t>
   </si>
   <si>
@@ -548,13 +544,13 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/gender-identity</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/gender-identity</t>
   </si>
   <si>
     <t>seeAlso</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/see-also}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/see-also}
 </t>
   </si>
   <si>
@@ -564,7 +560,7 @@
     <t>matchSourceReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-source-reference}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-source-reference}
 </t>
   </si>
   <si>
@@ -583,7 +579,7 @@
     <t>Patient.extension.extension.url</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/match-source-reference</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-source-reference</t>
   </si>
   <si>
     <t>Patient.extension.extension.value[x]</t>
@@ -606,7 +602,7 @@
     <t>matchMethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-method}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-method}
 </t>
   </si>
   <si>
@@ -616,7 +612,7 @@
     <t>splitMethod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/split-method}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/split-method}
 </t>
   </si>
   <si>
@@ -626,7 +622,7 @@
     <t>matchConfidenceLevel</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-confidence-level}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-confidence-level}
 </t>
   </si>
   <si>
@@ -636,7 +632,7 @@
     <t>matchConfidenceScore</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-confidence-score}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-confidence-score}
 </t>
   </si>
   <si>
@@ -646,7 +642,7 @@
     <t>matchPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-period}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-period}
 </t>
   </si>
   <si>
@@ -656,7 +652,7 @@
     <t>matchDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-detail}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-detail}
 </t>
   </si>
   <si>
@@ -672,7 +668,7 @@
     <t>matchComparedTo</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-compared-to}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-compared-to}
 </t>
   </si>
   <si>
@@ -691,7 +687,7 @@
     <t>Patient.extension.extension.extension.url</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/match-compared-to</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-compared-to</t>
   </si>
   <si>
     <t>Patient.extension.extension.extension.value[x]</t>
@@ -700,7 +696,7 @@
     <t>matchCriteria</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://ibm.com/fhir/cdm/StructureDefinition/match-criteria}
+    <t xml:space="preserve">Extension {http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-criteria}
 </t>
   </si>
   <si>
@@ -713,14 +709,14 @@
     <t>Confidence score for the match</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/match-detail</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/match-detail</t>
   </si>
   <si>
     <t>base64Binary
 booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/see-also</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/see-also</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -831,7 +827,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/ValueSet/identifier-type</t>
+    <t>http://linuxforhealth.org/fhir/cdm/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1897,7 +1893,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="80.89453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -2131,13 +2127,13 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
@@ -2151,7 +2147,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2162,28 +2158,28 @@
         <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2233,13 +2229,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2265,7 +2261,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2276,7 +2272,7 @@
         <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>78</v>
@@ -2288,13 +2284,13 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2345,22 +2341,22 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AF4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
+      <c r="AI4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AI4" t="s" s="2">
+      <c r="AJ4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2377,7 +2373,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2388,28 +2384,28 @@
         <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2459,19 +2455,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2491,7 +2487,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2502,7 +2498,7 @@
         <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2514,16 +2510,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2549,43 +2545,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2605,18 +2601,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2628,16 +2624,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2687,22 +2683,22 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -2719,11 +2715,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2742,16 +2738,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2801,7 +2797,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>76</v>
@@ -2816,7 +2812,7 @@
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -2833,7 +2829,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2856,13 +2852,13 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -2901,17 +2897,17 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -2923,7 +2919,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -2943,10 +2939,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>78</v>
@@ -2956,7 +2952,7 @@
         <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>78</v>
@@ -2968,13 +2964,13 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3025,7 +3021,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>76</v>
@@ -3034,10 +3030,10 @@
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3057,10 +3053,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>78</v>
@@ -3070,7 +3066,7 @@
         <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -3082,13 +3078,13 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3139,7 +3135,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -3148,10 +3144,10 @@
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3171,7 +3167,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3182,7 +3178,7 @@
         <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>78</v>
@@ -3194,13 +3190,13 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3251,22 +3247,22 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3283,7 +3279,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3306,13 +3302,13 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3351,19 +3347,19 @@
         <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AB13" t="s" s="2">
+      <c r="AE13" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>76</v>
@@ -3375,7 +3371,7 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
@@ -3395,7 +3391,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3403,10 +3399,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>78</v>
@@ -3418,16 +3414,16 @@
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3435,55 +3431,55 @@
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="R14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="R14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>159</v>
-      </c>
       <c r="AF14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>78</v>
@@ -3492,7 +3488,7 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3509,7 +3505,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3517,10 +3513,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>78</v>
@@ -3532,13 +3528,13 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3565,42 +3561,42 @@
         <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AE15" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AF15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
@@ -3617,20 +3613,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -3642,13 +3638,13 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3675,11 +3671,11 @@
         <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>78</v>
@@ -3697,22 +3693,22 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
@@ -3729,10 +3725,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>78</v>
@@ -3754,13 +3750,13 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>174</v>
-      </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3811,7 +3807,7 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>76</v>
@@ -3820,10 +3816,10 @@
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
@@ -3843,7 +3839,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3854,7 +3850,7 @@
         <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>78</v>
@@ -3866,13 +3862,13 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3923,22 +3919,22 @@
         <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
@@ -3955,7 +3951,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3963,7 +3959,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>77</v>
@@ -3978,13 +3974,13 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4023,19 +4019,19 @@
         <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AB19" t="s" s="2">
+      <c r="AE19" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -4047,7 +4043,7 @@
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -4067,20 +4063,20 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>78</v>
@@ -4092,13 +4088,13 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -4149,7 +4145,7 @@
         <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>76</v>
@@ -4161,7 +4157,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>78</v>
@@ -4181,7 +4177,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4192,7 +4188,7 @@
         <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>78</v>
@@ -4204,13 +4200,13 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4261,22 +4257,22 @@
         <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>78</v>
@@ -4293,7 +4289,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4316,13 +4312,13 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4361,19 +4357,19 @@
         <v>78</v>
       </c>
       <c r="AA22" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AB22" t="s" s="2">
+      <c r="AE22" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>76</v>
@@ -4385,7 +4381,7 @@
         <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>78</v>
@@ -4405,7 +4401,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4413,10 +4409,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>78</v>
@@ -4428,16 +4424,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4445,7 +4441,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>78</v>
@@ -4487,13 +4483,13 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>78</v>
@@ -4502,7 +4498,7 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>78</v>
@@ -4519,7 +4515,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4530,7 +4526,7 @@
         <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>78</v>
@@ -4542,13 +4538,13 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4587,32 +4583,32 @@
         <v>78</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB24" s="2"/>
       <c r="AC24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AE24" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AF24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
@@ -4629,10 +4625,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>78</v>
@@ -4642,7 +4638,7 @@
         <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
@@ -4654,13 +4650,13 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4711,22 +4707,22 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>78</v>
@@ -4743,10 +4739,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>78</v>
@@ -4756,7 +4752,7 @@
         <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -4768,13 +4764,13 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="K26" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="L26" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4825,7 +4821,7 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>76</v>
@@ -4837,7 +4833,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
@@ -4857,10 +4853,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>78</v>
@@ -4870,7 +4866,7 @@
         <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>78</v>
@@ -4882,13 +4878,13 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K27" t="s" s="2">
-        <v>193</v>
-      </c>
       <c r="L27" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4939,7 +4935,7 @@
         <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>76</v>
@@ -4951,7 +4947,7 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
@@ -4971,10 +4967,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>78</v>
@@ -4984,7 +4980,7 @@
         <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -4996,13 +4992,13 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K28" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="L28" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -5053,7 +5049,7 @@
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>76</v>
@@ -5065,7 +5061,7 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5085,10 +5081,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>78</v>
@@ -5098,7 +5094,7 @@
         <v>76</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5110,13 +5106,13 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="L29" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5167,7 +5163,7 @@
         <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>76</v>
@@ -5179,7 +5175,7 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5199,10 +5195,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>78</v>
@@ -5212,7 +5208,7 @@
         <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>78</v>
@@ -5224,13 +5220,13 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="K30" t="s" s="2">
-        <v>202</v>
-      </c>
       <c r="L30" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5281,7 +5277,7 @@
         <v>78</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>76</v>
@@ -5293,7 +5289,7 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5313,10 +5309,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>78</v>
@@ -5338,13 +5334,13 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5395,7 +5391,7 @@
         <v>78</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>76</v>
@@ -5407,7 +5403,7 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>78</v>
@@ -5427,7 +5423,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5438,7 +5434,7 @@
         <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>78</v>
@@ -5450,13 +5446,13 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5507,22 +5503,22 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
@@ -5539,7 +5535,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5547,7 +5543,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>77</v>
@@ -5562,13 +5558,13 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5607,19 +5603,19 @@
         <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AB33" t="s" s="2">
+      <c r="AE33" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>76</v>
@@ -5631,7 +5627,7 @@
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -5651,17 +5647,17 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>77</v>
@@ -5676,13 +5672,13 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5733,7 +5729,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>76</v>
@@ -5745,7 +5741,7 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -5765,7 +5761,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5776,7 +5772,7 @@
         <v>76</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -5788,13 +5784,13 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5845,22 +5841,22 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>78</v>
@@ -5877,7 +5873,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5900,13 +5896,13 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5945,19 +5941,19 @@
         <v>78</v>
       </c>
       <c r="AA36" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AB36" t="s" s="2">
+      <c r="AE36" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>76</v>
@@ -5969,7 +5965,7 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -5989,7 +5985,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5997,10 +5993,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>78</v>
@@ -6012,16 +6008,16 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6029,7 +6025,7 @@
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>78</v>
@@ -6071,13 +6067,13 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>78</v>
@@ -6086,7 +6082,7 @@
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6103,7 +6099,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6114,7 +6110,7 @@
         <v>76</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6126,13 +6122,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6171,32 +6167,32 @@
         <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AB38" s="2"/>
       <c r="AC38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AE38" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AF38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -6213,10 +6209,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>78</v>
@@ -6226,7 +6222,7 @@
         <v>76</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6238,13 +6234,13 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6295,22 +6291,22 @@
         <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -6327,20 +6323,20 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>78</v>
@@ -6352,13 +6348,13 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K40" t="s" s="2">
-        <v>219</v>
-      </c>
       <c r="L40" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6409,7 +6405,7 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>76</v>
@@ -6421,7 +6417,7 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -6441,10 +6437,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>78</v>
@@ -6454,7 +6450,7 @@
         <v>76</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6466,13 +6462,13 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6523,7 +6519,7 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>76</v>
@@ -6535,7 +6531,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>78</v>
@@ -6555,10 +6551,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C42" t="s" s="2">
         <v>78</v>
@@ -6568,7 +6564,7 @@
         <v>76</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -6580,13 +6576,13 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6637,7 +6633,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>76</v>
@@ -6649,7 +6645,7 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
@@ -6669,7 +6665,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6677,10 +6673,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>78</v>
@@ -6692,16 +6688,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6709,7 +6705,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>78</v>
@@ -6751,13 +6747,13 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
@@ -6766,7 +6762,7 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
@@ -6783,7 +6779,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6806,13 +6802,13 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6863,22 +6859,22 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
@@ -6895,7 +6891,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6903,10 +6899,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -6918,16 +6914,16 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6935,7 +6931,7 @@
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>78</v>
@@ -6977,13 +6973,13 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
@@ -6992,7 +6988,7 @@
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7009,7 +7005,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7032,13 +7028,13 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7089,22 +7085,22 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
@@ -7121,11 +7117,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7138,25 +7134,25 @@
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M47" t="s" s="2">
+      <c r="N47" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7205,7 +7201,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>76</v>
@@ -7217,10 +7213,10 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
@@ -7237,7 +7233,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7245,7 +7241,7 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>77</v>
@@ -7257,20 +7253,20 @@
         <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>78</v>
@@ -7319,7 +7315,7 @@
         <v>78</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>76</v>
@@ -7331,19 +7327,19 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AL48" t="s" s="2">
+      <c r="AM48" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7351,7 +7347,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7362,7 +7358,7 @@
         <v>76</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7374,13 +7370,13 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7431,22 +7427,22 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -7463,11 +7459,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7486,16 +7482,16 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M50" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7533,19 +7529,19 @@
         <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD50" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="AB50" t="s" s="2">
+      <c r="AE50" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>76</v>
@@ -7557,10 +7553,10 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
@@ -7577,7 +7573,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7588,31 +7584,31 @@
         <v>76</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I51" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>78</v>
@@ -7637,55 +7633,55 @@
         <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="X51" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="X51" t="s" s="2">
+      <c r="Y51" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE51" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE51" t="s" s="2">
+      <c r="AF51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AF51" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -7693,7 +7689,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7704,31 +7700,31 @@
         <v>76</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J52" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7753,53 +7749,53 @@
         <v>78</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X52" s="2"/>
       <c r="Y52" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE52" t="s" s="2">
+      <c r="AF52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -7807,7 +7803,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7815,34 +7811,34 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>267</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>78</v>
@@ -7855,67 +7851,67 @@
         <v>78</v>
       </c>
       <c r="S53" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="T53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE53" t="s" s="2">
+      <c r="AF53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AF53" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
+      <c r="AK53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -7923,7 +7919,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7931,31 +7927,31 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7969,67 +7965,67 @@
         <v>78</v>
       </c>
       <c r="S54" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="T54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE54" t="s" s="2">
+      <c r="AF54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="AF54" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8037,7 +8033,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8048,25 +8044,25 @@
         <v>76</v>
       </c>
       <c r="F55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J55" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8117,31 +8113,31 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AF55" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
+      <c r="AK55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8149,7 +8145,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8160,28 +8156,28 @@
         <v>76</v>
       </c>
       <c r="F56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J56" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8231,31 +8227,31 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AF56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
+      <c r="AK56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM56" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>78</v>
@@ -8263,7 +8259,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8274,103 +8270,103 @@
         <v>76</v>
       </c>
       <c r="F57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I57" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="P57" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="O57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="P57" t="s" s="2">
+      <c r="Q57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="Q57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
+      <c r="AK57" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>
@@ -8381,7 +8377,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8401,22 +8397,22 @@
         <v>78</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -8465,7 +8461,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>76</v>
@@ -8477,19 +8473,19 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8497,7 +8493,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8517,22 +8513,22 @@
         <v>78</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>78</v>
@@ -8581,7 +8577,7 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>76</v>
@@ -8593,19 +8589,19 @@
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>78</v>
@@ -8613,7 +8609,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8624,31 +8620,31 @@
         <v>76</v>
       </c>
       <c r="F60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I60" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I60" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J60" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>78</v>
@@ -8673,55 +8669,55 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Y60" t="s" s="2">
+      <c r="Z60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AK60" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8729,7 +8725,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8740,31 +8736,31 @@
         <v>76</v>
       </c>
       <c r="F61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I61" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I61" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J61" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>78</v>
@@ -8813,39 +8809,39 @@
         <v>78</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8856,31 +8852,31 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H62" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I62" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -8929,31 +8925,31 @@
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ62" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -8961,7 +8957,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8981,22 +8977,22 @@
         <v>78</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>78</v>
@@ -9045,7 +9041,7 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>76</v>
@@ -9057,19 +9053,19 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ63" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AK63" t="s" s="2">
+      <c r="AL63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9077,7 +9073,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9100,17 +9096,17 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9135,55 +9131,55 @@
         <v>78</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X64" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y64" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Y64" t="s" s="2">
+      <c r="Z64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG64" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI64" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
+      <c r="AK64" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AK64" t="s" s="2">
+      <c r="AL64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9191,7 +9187,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9214,19 +9210,19 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9275,31 +9271,31 @@
         <v>78</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>375</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9307,7 +9303,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9330,19 +9326,19 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9391,7 +9387,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>76</v>
@@ -9403,19 +9399,19 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9423,7 +9419,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9446,19 +9442,19 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>78</v>
@@ -9507,7 +9503,7 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>76</v>
@@ -9519,13 +9515,13 @@
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AK67" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
@@ -9539,7 +9535,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9550,7 +9546,7 @@
         <v>76</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -9562,13 +9558,13 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -9619,22 +9615,22 @@
         <v>78</v>
       </c>
       <c r="AE68" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>78</v>
@@ -9651,11 +9647,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9674,16 +9670,16 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M69" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -9733,7 +9729,7 @@
         <v>78</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>76</v>
@@ -9745,10 +9741,10 @@
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>78</v>
@@ -9765,11 +9761,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9782,25 +9778,25 @@
         <v>78</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L70" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="M70" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>78</v>
@@ -9849,7 +9845,7 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>76</v>
@@ -9861,10 +9857,10 @@
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>78</v>
@@ -9881,7 +9877,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9904,17 +9900,17 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -9939,14 +9935,14 @@
         <v>78</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>404</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>78</v>
       </c>
@@ -9963,7 +9959,7 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>76</v>
@@ -9975,19 +9971,19 @@
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ71" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -9995,7 +9991,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10006,7 +10002,7 @@
         <v>76</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>78</v>
@@ -10018,17 +10014,17 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10077,31 +10073,31 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10109,7 +10105,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10132,19 +10128,19 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M73" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="N73" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10193,7 +10189,7 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>76</v>
@@ -10205,19 +10201,19 @@
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10225,7 +10221,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10236,7 +10232,7 @@
         <v>76</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10248,17 +10244,17 @@
         <v>78</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10307,31 +10303,31 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10339,7 +10335,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10350,7 +10346,7 @@
         <v>76</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10362,17 +10358,17 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>78</v>
@@ -10397,55 +10393,55 @@
         <v>78</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X75" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="Y75" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Y75" t="s" s="2">
+      <c r="Z75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Z75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="AK75" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>78</v>
@@ -10453,7 +10449,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10464,7 +10460,7 @@
         <v>76</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>78</v>
@@ -10476,17 +10472,17 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>78</v>
@@ -10535,31 +10531,31 @@
         <v>78</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH76" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AI76" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
+      <c r="AK76" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>78</v>
@@ -10567,7 +10563,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10578,7 +10574,7 @@
         <v>76</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>78</v>
@@ -10590,13 +10586,13 @@
         <v>78</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10647,25 +10643,25 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
@@ -10679,7 +10675,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10702,19 +10698,19 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>78</v>
@@ -10763,7 +10759,7 @@
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>76</v>
@@ -10775,13 +10771,13 @@
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>78</v>
@@ -10795,7 +10791,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10806,7 +10802,7 @@
         <v>76</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -10818,13 +10814,13 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K79" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K79" t="s" s="2">
+      <c r="L79" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -10875,22 +10871,22 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>78</v>
@@ -10907,11 +10903,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10930,16 +10926,16 @@
         <v>78</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M80" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10989,7 +10985,7 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>76</v>
@@ -11001,10 +10997,10 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>78</v>
@@ -11021,11 +11017,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -11038,25 +11034,25 @@
         <v>78</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L81" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="M81" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N81" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>78</v>
@@ -11105,7 +11101,7 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>76</v>
@@ -11117,10 +11113,10 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>78</v>
@@ -11137,7 +11133,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11145,10 +11141,10 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11160,19 +11156,19 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>78</v>
@@ -11197,14 +11193,14 @@
         <v>78</v>
       </c>
       <c r="W82" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X82" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X82" t="s" s="2">
+      <c r="Y82" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y82" t="s" s="2">
-        <v>113</v>
-      </c>
       <c r="Z82" t="s" s="2">
         <v>78</v>
       </c>
@@ -11221,31 +11217,31 @@
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ82" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AK82" t="s" s="2">
+      <c r="AL82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11253,7 +11249,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11264,7 +11260,7 @@
         <v>76</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>78</v>
@@ -11276,19 +11272,19 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="O83" t="s" s="2">
         <v>78</v>
@@ -11337,31 +11333,31 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="AK83" t="s" s="2">
+      <c r="AL83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11369,11 +11365,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11392,16 +11388,16 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11451,7 +11447,7 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>76</v>
@@ -11463,19 +11459,19 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ84" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11483,7 +11479,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11503,22 +11499,22 @@
         <v>78</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>78</v>
@@ -11567,25 +11563,25 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
@@ -11599,7 +11595,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11616,25 +11612,25 @@
         <v>78</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>481</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>78</v>
@@ -11683,7 +11679,7 @@
         <v>78</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>76</v>
@@ -11695,13 +11691,13 @@
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>78</v>
@@ -11715,7 +11711,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11726,7 +11722,7 @@
         <v>76</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>78</v>
@@ -11738,13 +11734,13 @@
         <v>78</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K87" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="K87" t="s" s="2">
+      <c r="L87" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11795,22 +11791,22 @@
         <v>78</v>
       </c>
       <c r="AE87" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>78</v>
@@ -11827,11 +11823,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11850,16 +11846,16 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L88" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="M88" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -11909,7 +11905,7 @@
         <v>78</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>76</v>
@@ -11921,10 +11917,10 @@
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>78</v>
@@ -11941,11 +11937,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11958,25 +11954,25 @@
         <v>78</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="L89" t="s" s="2">
-        <v>397</v>
-      </c>
       <c r="M89" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="N89" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="O89" t="s" s="2">
         <v>78</v>
@@ -12025,7 +12021,7 @@
         <v>78</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>76</v>
@@ -12037,10 +12033,10 @@
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>78</v>
@@ -12057,7 +12053,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12065,31 +12061,31 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F90" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J90" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="K90" t="s" s="2">
+      <c r="L90" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="M90" t="s" s="2">
         <v>489</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>490</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -12139,31 +12135,31 @@
         <v>78</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>78</v>
@@ -12171,7 +12167,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12179,28 +12175,28 @@
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I91" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F91" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J91" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12227,49 +12223,49 @@
         <v>78</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="X91" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="Y91" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="Y91" t="s" s="2">
+      <c r="Z91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="AK91" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>78</v>
